--- a/爆炒江湖/爆炒江湖.xlsx
+++ b/爆炒江湖/爆炒江湖.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isowang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitlab\gamestatus\爆炒江湖\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8976" xr2:uid="{1DB395CF-C7BE-4E51-A5E5-6BFE48C2E2E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8976" activeTab="1" xr2:uid="{1DB395CF-C7BE-4E51-A5E5-6BFE48C2E2E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="采集" sheetId="1" r:id="rId1"/>
+    <sheet name="厨子" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>菜棚</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +104,78 @@
   </si>
   <si>
     <t>1火+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2阶材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3阶材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽十六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊麓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -190,10 +263,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -215,6 +288,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AF7DB7A-FD5B-4978-A386-F61FDE36A741}" name="表2" displayName="表2" ref="A1:Q3" totalsRowShown="0">
+  <autoFilter ref="A1:Q3" xr:uid="{E200D697-3EA9-4090-A89F-23E796EF410F}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{9050A18D-0FF7-4353-8BDE-F7B925296479}" name="id"/>
+    <tableColumn id="2" xr3:uid="{6BCE97B2-89B4-4DB8-90D8-AF0BF2C2A5DA}" name="名称"/>
+    <tableColumn id="3" xr3:uid="{5AD4EEEC-BA36-4D3B-B0F4-4E5C45DB0B2A}" name="火"/>
+    <tableColumn id="4" xr3:uid="{652F32DA-B4C3-424F-A4E7-28F6566D067B}" name="炒"/>
+    <tableColumn id="5" xr3:uid="{1A47962A-9432-471B-8863-9E597014C876}" name="烤"/>
+    <tableColumn id="6" xr3:uid="{DA449608-F444-4EDB-9B0F-BF6E5B8BAB6A}" name="煮"/>
+    <tableColumn id="7" xr3:uid="{48D940F8-D889-494F-8C41-7C2423E0CB35}" name="蒸"/>
+    <tableColumn id="8" xr3:uid="{96C8DCE7-91D9-4AD2-A8C3-E1132E0934AB}" name="炸"/>
+    <tableColumn id="9" xr3:uid="{ECE268B6-AB1C-448C-8BD7-7249FA9C8DA6}" name="切"/>
+    <tableColumn id="10" xr3:uid="{55C61A2E-8C84-4751-91BE-253D42B5230B}" name="肉"/>
+    <tableColumn id="11" xr3:uid="{6AAF4250-A784-41DC-9DBA-2305DB477FDD}" name="面"/>
+    <tableColumn id="12" xr3:uid="{F2BEA13D-B09C-4032-A415-9523D02E5E60}" name="菜"/>
+    <tableColumn id="13" xr3:uid="{D4177E37-9BFF-46A7-94B3-5C8185EAA988}" name="鱼"/>
+    <tableColumn id="17" xr3:uid="{902C9A44-5902-44A5-8968-A993515B7283}" name="技能"/>
+    <tableColumn id="14" xr3:uid="{A352E33A-1927-42BF-AF8C-28047F38A76D}" name="2阶材料"/>
+    <tableColumn id="15" xr3:uid="{4900451B-A52D-4A4B-8DA0-CD8A0D2720B0}" name="3阶材料"/>
+    <tableColumn id="16" xr3:uid="{88A9E31A-944B-4CBA-A17E-1CB285E0C082}" name="来源"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A889EDEC-A0BD-4E0A-AED8-0A577917CF15}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -526,48 +625,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>18</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -576,15 +675,15 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -593,19 +692,19 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>22</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -614,15 +713,15 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -631,19 +730,19 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>24</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -652,15 +751,15 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -669,31 +768,31 @@
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="2">
@@ -714,27 +813,27 @@
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="2"/>
@@ -745,19 +844,19 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>25</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -766,15 +865,15 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -783,19 +882,19 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>26</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -804,15 +903,15 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -821,19 +920,19 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>27</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -842,15 +941,15 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -859,19 +958,19 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>29</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -880,15 +979,15 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -901,26 +1000,135 @@
     <sortCondition ref="C16"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFB29CC-BAF7-42D6-8DE7-DCBC5CE23E1C}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="16" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>184</v>
+      </c>
+      <c r="F2">
+        <v>154</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>61</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/爆炒江湖/爆炒江湖.xlsx
+++ b/爆炒江湖/爆炒江湖.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8976" activeTab="1" xr2:uid="{1DB395CF-C7BE-4E51-A5E5-6BFE48C2E2E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8976" xr2:uid="{1DB395CF-C7BE-4E51-A5E5-6BFE48C2E2E3}"/>
   </bookViews>
   <sheets>
     <sheet name="采集" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>菜棚</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>点数需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1火+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -615,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A889EDEC-A0BD-4E0A-AED8-0A577917CF15}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -819,13 +815,13 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>18</v>
@@ -1000,16 +996,6 @@
     <sortCondition ref="C16"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
@@ -1018,6 +1004,16 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1028,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFB29CC-BAF7-42D6-8DE7-DCBC5CE23E1C}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -1039,55 +1035,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1095,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1118,7 +1114,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>3</v>

--- a/爆炒江湖/爆炒江湖.xlsx
+++ b/爆炒江湖/爆炒江湖.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
   <si>
     <t>菜棚</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,14 +453,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>兔爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后羿/孙香香+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>傣弟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,22 +597,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鱼不斩/4+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙香香/5+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汤媛/4+2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>白稻荷/5+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>叶姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,6 +622,22 @@
   </si>
   <si>
     <t>剪刀蟹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白稻荷/0+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔爷/5+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙香香/5+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽十六/蛋黄/5+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,29 +893,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -931,6 +909,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,14 +1246,14 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
@@ -1270,20 +1266,20 @@
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="26">
         <v>18</v>
       </c>
       <c r="C2" s="6">
@@ -1301,42 +1297,42 @@
       <c r="G2" s="6">
         <v>6</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="28">
         <f>SUM(C2:G2)</f>
         <v>18</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="24"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="6">
         <v>5</v>
       </c>
@@ -1352,20 +1348,20 @@
       <c r="G4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="21">
         <f>SUM(C4:G4)</f>
         <v>20</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="26">
         <v>22</v>
       </c>
       <c r="C5" s="6">
@@ -1377,48 +1373,48 @@
       <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <v>2</v>
       </c>
       <c r="G5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="28">
         <f t="shared" ref="H5" si="0">SUM(C5:G5)</f>
         <v>16</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="24"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1428,28 +1424,28 @@
       <c r="E7" s="8">
         <v>4</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="19">
         <v>5</v>
       </c>
       <c r="G7" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="21">
         <f>SUM(C7:G7)</f>
         <v>22</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="26">
         <v>24</v>
       </c>
       <c r="C8" s="8">
@@ -1461,46 +1457,46 @@
       <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="24">
         <v>3</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="25">
+      <c r="H8" s="28">
         <f t="shared" ref="H8" si="1">SUM(C8:G8)</f>
         <v>10</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>157</v>
-      </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="8">
         <v>4</v>
       </c>
@@ -1510,24 +1506,24 @@
       <c r="E10" s="8">
         <v>5</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="24">
         <v>5</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="27">
+      <c r="H10" s="21">
         <f>SUM(C10:G10)</f>
         <v>19</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="26">
         <v>25</v>
       </c>
       <c r="C11" s="7">
@@ -1545,42 +1541,42 @@
       <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="28">
         <f t="shared" ref="H11" si="2">SUM(C11:G11)</f>
         <v>17</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="7">
         <v>5</v>
       </c>
@@ -1600,16 +1596,16 @@
         <f>SUM(C13:G13)</f>
         <v>25</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="19">
+      <c r="A14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="26">
         <v>25</v>
       </c>
       <c r="C14" s="6">
@@ -1627,34 +1623,34 @@
       <c r="G14" s="6">
         <v>3</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="26">
         <f t="shared" ref="H14" si="3">SUM(C14:G14)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="21"/>
+        <v>167</v>
+      </c>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="6">
         <v>5</v>
       </c>
@@ -1676,10 +1672,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="A17" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="26">
         <v>26</v>
       </c>
       <c r="C17" s="6">
@@ -1694,37 +1690,33 @@
       <c r="F17" s="9">
         <v>5</v>
       </c>
-      <c r="G17" s="8">
-        <v>4</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="G17" s="6"/>
+      <c r="H17" s="26">
         <f t="shared" ref="H17" si="4">SUM(C17:G17)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="21"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="6">
         <v>6</v>
       </c>
@@ -1737,19 +1729,17 @@
       <c r="F19" s="9">
         <v>5</v>
       </c>
-      <c r="G19" s="8">
-        <v>6</v>
-      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="5">
         <f>SUM(C19:G19)</f>
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="26">
         <v>27</v>
       </c>
       <c r="C20" s="6">
@@ -1767,34 +1757,34 @@
       <c r="G20" s="6">
         <v>5</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="26">
         <f t="shared" ref="H20" si="5">SUM(C20:G20)</f>
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="21"/>
+        <v>137</v>
+      </c>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="6">
         <v>5</v>
       </c>
@@ -1816,17 +1806,17 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="26">
         <v>29</v>
       </c>
       <c r="C23" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="6">
         <v>7</v>
@@ -1835,40 +1825,40 @@
         <v>9</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="19">
+      <c r="H23" s="26">
         <f t="shared" ref="H23" si="6">SUM(C23:G23)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="21"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25" s="6">
         <v>9</v>
@@ -1876,7 +1866,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="5">
         <f>SUM(C25:G25)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1884,6 +1874,17 @@
     <sortCondition ref="B23"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="H14:H15"/>
@@ -1896,19 +1897,8 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1921,8 +1911,8 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1922,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>11</v>
@@ -1941,22 +1931,22 @@
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10" t="s">
@@ -1969,13 +1959,13 @@
         <v>16</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>15</v>
@@ -1992,251 +1982,259 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12">
-        <v>66</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E2" s="12">
+        <v>21</v>
+      </c>
+      <c r="F2" s="12"/>
       <c r="G2" s="12">
-        <v>100</v>
-      </c>
-      <c r="H2" s="12">
-        <v>33</v>
-      </c>
-      <c r="I2" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
+        <v>128</v>
+      </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="L2" s="12">
+        <v>3</v>
+      </c>
       <c r="M2" s="12"/>
-      <c r="N2" s="12">
-        <v>4</v>
-      </c>
+      <c r="N2" s="12"/>
       <c r="O2" s="12">
+        <v>6</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2">
         <v>2</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12">
+        <v>53</v>
+      </c>
       <c r="F3" s="12">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G3" s="12">
-        <v>92</v>
-      </c>
-      <c r="H3" s="12">
-        <v>15</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H3" s="12"/>
       <c r="I3" s="12">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="L3" s="12">
+        <v>3</v>
+      </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12">
         <v>3</v>
       </c>
-      <c r="O3" s="12">
-        <v>3</v>
-      </c>
+      <c r="O3" s="12"/>
       <c r="P3" s="13" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>21</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="17">
-        <v>23</v>
-      </c>
-      <c r="E4" s="17">
-        <v>46</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17">
-        <v>138</v>
-      </c>
-      <c r="H4" s="17">
-        <v>92</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17">
-        <v>4</v>
-      </c>
-      <c r="O4" s="17">
-        <v>3</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>27</v>
+      <c r="A4" s="11">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>75</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
+        <v>15</v>
+      </c>
+      <c r="H4" s="12">
+        <v>30</v>
+      </c>
+      <c r="I4" s="12">
+        <v>78</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="12">
+        <v>3</v>
+      </c>
+      <c r="M4" s="12">
+        <v>5</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>27</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="17">
-        <v>23</v>
-      </c>
-      <c r="E5" s="17">
-        <v>46</v>
-      </c>
-      <c r="F5" s="17">
-        <v>138</v>
-      </c>
-      <c r="G5" s="17">
-        <v>92</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17">
-        <v>4</v>
-      </c>
-      <c r="O5" s="17">
-        <v>3</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>27</v>
+      <c r="A5" s="11">
+        <v>99</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>100</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>66</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12">
+        <v>33</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="12">
+        <v>3</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12">
+        <v>3</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="12">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12">
+        <v>30</v>
+      </c>
       <c r="H6" s="12">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="I6" s="12">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12">
-        <v>5</v>
-      </c>
-      <c r="O6" s="12">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L6" s="12">
+        <v>3</v>
+      </c>
+      <c r="M6" s="12">
+        <v>3</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>92</v>
+      </c>
       <c r="E7" s="12">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="F7" s="12">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="12">
-        <v>92</v>
-      </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L7" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12">
-        <v>3</v>
-      </c>
+      <c r="N7" s="12">
+        <v>5</v>
+      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="13" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
@@ -2245,102 +2243,105 @@
         <v>23</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12">
+        <v>138</v>
+      </c>
       <c r="G8" s="12">
         <v>92</v>
       </c>
       <c r="H8" s="12">
-        <v>138</v>
-      </c>
-      <c r="I8" s="12">
         <v>46</v>
       </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="14">
-        <v>4</v>
-      </c>
-      <c r="M8" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="L8" s="12">
+        <v>3</v>
+      </c>
+      <c r="M8" s="12">
+        <v>4</v>
+      </c>
       <c r="N8" s="12"/>
-      <c r="O8" s="12">
-        <v>3</v>
-      </c>
+      <c r="O8" s="12"/>
       <c r="P8" s="13" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="12">
-        <v>92</v>
-      </c>
-      <c r="E9" s="12">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <v>100</v>
+      </c>
+      <c r="G9" s="12">
+        <v>33</v>
+      </c>
       <c r="H9" s="12">
-        <v>138</v>
-      </c>
-      <c r="I9" s="12">
-        <v>46</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="14">
-        <v>4</v>
-      </c>
-      <c r="M9" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="L9" s="12">
+        <v>3</v>
+      </c>
+      <c r="M9" s="12">
+        <v>5</v>
+      </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="12">
-        <v>3</v>
-      </c>
+      <c r="O9" s="12"/>
       <c r="P9" s="13" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12">
-        <v>138</v>
-      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="12">
+        <v>61</v>
+      </c>
+      <c r="F10" s="12">
+        <v>15</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
         <v>92</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12">
-        <v>46</v>
-      </c>
-      <c r="H10" s="12">
-        <v>23</v>
-      </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12">
+        <v>30</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="L10" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -2350,40 +2351,37 @@
       <c r="P10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="12">
-        <v>138</v>
-      </c>
-      <c r="E11" s="12">
-        <v>46</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="H11" s="12">
-        <v>92</v>
-      </c>
-      <c r="I11" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="I11" s="12">
+        <v>46</v>
+      </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="12">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="L11" s="14">
+        <v>4</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -2393,27 +2391,24 @@
       <c r="P11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>92</v>
+      </c>
       <c r="E12" s="12">
-        <v>92</v>
-      </c>
-      <c r="F12" s="12">
         <v>23</v>
       </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12">
         <v>138</v>
@@ -2423,1818 +2418,1816 @@
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L12" s="14">
+        <v>4</v>
+      </c>
+      <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12">
         <v>3</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
-        <v>46</v>
-      </c>
-      <c r="F13" s="12">
-        <v>92</v>
-      </c>
-      <c r="G13" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
+        <v>166</v>
+      </c>
       <c r="H13" s="12">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="I13" s="12">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="L13" s="12">
+        <v>4</v>
+      </c>
       <c r="M13" s="12"/>
-      <c r="N13" s="12">
-        <v>3</v>
-      </c>
+      <c r="N13" s="12"/>
       <c r="O13" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
-        <v>20</v>
-      </c>
-      <c r="F14" s="12">
-        <v>80</v>
-      </c>
+      <c r="D14" s="12">
+        <v>46</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="12">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="I14" s="12">
+        <v>138</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="L14" s="12">
+        <v>4</v>
+      </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12">
-        <v>4</v>
-      </c>
-      <c r="O14" s="12">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O14" s="12"/>
       <c r="P14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="12">
-        <v>46</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
-        <v>23</v>
-      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
+        <v>16</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="12">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H15" s="12">
-        <v>138</v>
-      </c>
-      <c r="I15" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="I15" s="12">
+        <v>16</v>
+      </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="L15" s="12">
+        <v>4</v>
+      </c>
       <c r="M15" s="12">
         <v>3</v>
       </c>
       <c r="N15" s="12"/>
-      <c r="O15" s="12">
-        <v>4</v>
-      </c>
+      <c r="O15" s="12"/>
       <c r="P15" s="13" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12">
-        <v>66</v>
-      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G16" s="12">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="H16" s="12">
-        <v>133</v>
-      </c>
-      <c r="I16" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="I16" s="12">
+        <v>52</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="L16" s="12">
-        <v>9</v>
-      </c>
-      <c r="M16" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="M16" s="12">
+        <v>3</v>
+      </c>
       <c r="N16" s="12"/>
-      <c r="O16" s="12">
-        <v>4</v>
-      </c>
+      <c r="O16" s="12"/>
       <c r="P16" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12">
+        <v>46</v>
+      </c>
       <c r="E17" s="12">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F17" s="12">
-        <v>133</v>
-      </c>
-      <c r="G17" s="12">
-        <v>33</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="12">
+        <v>4</v>
+      </c>
+      <c r="M17" s="12">
+        <v>3</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>117</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12">
-        <v>5</v>
-      </c>
-      <c r="O17" s="12">
-        <v>4</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>69</v>
-      </c>
       <c r="B18" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
+      <c r="D18" s="12"/>
       <c r="E18" s="12">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F18" s="12">
-        <v>33</v>
-      </c>
-      <c r="G18" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="G18" s="12">
+        <v>23</v>
+      </c>
       <c r="H18" s="12">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12">
-        <v>3</v>
-      </c>
-      <c r="O18" s="12">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="L18" s="12">
+        <v>4</v>
+      </c>
+      <c r="M18" s="12">
+        <v>3</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="12">
-        <v>66</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
+        <v>46</v>
+      </c>
       <c r="F19" s="12">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G19" s="12">
-        <v>33</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <v>23</v>
+      </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12">
-        <v>3</v>
-      </c>
-      <c r="O19" s="12">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="L19" s="12">
+        <v>4</v>
+      </c>
+      <c r="M19" s="12">
+        <v>3</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="12">
-        <v>138</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>23</v>
+      </c>
       <c r="F20" s="12">
         <v>46</v>
       </c>
       <c r="G20" s="12">
-        <v>23</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12">
         <v>92</v>
       </c>
+      <c r="H20" s="12">
+        <v>138</v>
+      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12">
-        <v>4</v>
-      </c>
-      <c r="O20" s="12">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L20" s="12">
+        <v>4</v>
+      </c>
+      <c r="M20" s="12">
+        <v>3</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
       <c r="P20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>199</v>
+      </c>
       <c r="E21" s="12">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="H21" s="12">
-        <v>30</v>
-      </c>
-      <c r="I21" s="12">
-        <v>61</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12">
-        <v>5</v>
-      </c>
-      <c r="O21" s="12">
-        <v>5</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="L21" s="12">
+        <v>4</v>
+      </c>
+      <c r="M21" s="12">
+        <v>5</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="12">
-        <v>276</v>
-      </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="12">
-        <v>46</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
-        <v>92</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F22" s="12">
+        <v>33</v>
+      </c>
+      <c r="G22" s="12"/>
       <c r="H22" s="12">
-        <v>184</v>
-      </c>
-      <c r="I22" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>100</v>
+      </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="L22" s="12">
+        <v>4</v>
+      </c>
       <c r="M22" s="12">
+        <v>4</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12">
-        <v>5</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>141</v>
-      </c>
       <c r="B23" s="6" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="12">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="E23" s="12">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="I23" s="12">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12">
-        <v>6</v>
-      </c>
-      <c r="O23" s="12">
-        <v>5</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L23" s="12">
+        <v>4</v>
+      </c>
+      <c r="M23" s="12">
+        <v>5</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="12">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E24" s="12">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="12">
+        <v>46</v>
+      </c>
       <c r="H24" s="12">
-        <v>61</v>
-      </c>
-      <c r="I24" s="12">
-        <v>61</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="L24" s="12">
+        <v>5</v>
+      </c>
       <c r="M24" s="12"/>
-      <c r="N24" s="12">
-        <v>6</v>
-      </c>
+      <c r="N24" s="12"/>
       <c r="O24" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12">
-        <v>66</v>
-      </c>
-      <c r="F25" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="F25" s="12">
+        <v>184</v>
+      </c>
       <c r="G25" s="12">
-        <v>166</v>
-      </c>
-      <c r="H25" s="12">
-        <v>33</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="H25" s="12"/>
       <c r="I25" s="12">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="L25" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P25" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="12">
-        <v>66</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12">
-        <v>100</v>
-      </c>
-      <c r="G26" s="12">
-        <v>33</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E26" s="12">
+        <v>123</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12"/>
+        <v>216</v>
+      </c>
+      <c r="I26" s="12">
+        <v>30</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="L26" s="12">
+        <v>5</v>
+      </c>
       <c r="M26" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" s="12"/>
-      <c r="O26" s="12">
-        <v>5</v>
-      </c>
+      <c r="O26" s="12"/>
       <c r="P26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26">
-        <v>2</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="12">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="G27" s="12">
-        <v>92</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12">
-        <v>184</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H27" s="12">
+        <v>61</v>
+      </c>
+      <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L27" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="L27" s="12">
+        <v>5</v>
+      </c>
       <c r="M27" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N27" s="12"/>
-      <c r="O27" s="12">
-        <v>5</v>
-      </c>
+      <c r="O27" s="12"/>
       <c r="P27" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="12">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="E28" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12">
-        <v>64</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12">
-        <v>128</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H28" s="12">
+        <v>92</v>
+      </c>
+      <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="L28" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T28">
+      <c r="Q28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="F29" s="12">
-        <v>184</v>
-      </c>
-      <c r="G29" s="12">
-        <v>276</v>
-      </c>
-      <c r="H29" s="12"/>
+        <v>249</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12">
+        <v>374</v>
+      </c>
       <c r="I29" s="12">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="L29" s="12">
-        <v>5</v>
-      </c>
-      <c r="M29" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="M29" s="12">
+        <v>7</v>
+      </c>
       <c r="N29" s="12"/>
-      <c r="O29" s="12">
-        <v>6</v>
-      </c>
+      <c r="O29" s="12"/>
       <c r="P29" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="12">
-        <v>232</v>
-      </c>
-      <c r="E30" s="12">
-        <v>174</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12">
+        <v>33</v>
+      </c>
+      <c r="G30" s="12">
+        <v>199</v>
+      </c>
       <c r="H30" s="12">
-        <v>58</v>
-      </c>
-      <c r="I30" s="12">
-        <v>348</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="L30" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="L30" s="12">
+        <v>9</v>
+      </c>
       <c r="M30" s="12"/>
-      <c r="N30" s="12">
-        <v>6</v>
-      </c>
+      <c r="N30" s="12"/>
       <c r="O30" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G31" s="12">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="H31" s="12">
-        <v>30</v>
-      </c>
-      <c r="I31" s="12">
-        <v>15</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L31" s="12"/>
-      <c r="M31" s="12">
-        <v>3</v>
-      </c>
+      <c r="M31" s="12"/>
       <c r="N31" s="12">
-        <v>3</v>
-      </c>
-      <c r="O31" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="O31" s="12">
+        <v>2</v>
+      </c>
       <c r="P31" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
+      <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="12">
+        <v>61</v>
+      </c>
       <c r="G32" s="12">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H32" s="12">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="I32" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L32" s="12"/>
-      <c r="M32" s="12">
-        <v>2</v>
-      </c>
+      <c r="M32" s="12"/>
       <c r="N32" s="12">
-        <v>4</v>
-      </c>
-      <c r="O32" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="O32" s="12">
+        <v>3</v>
+      </c>
       <c r="P32" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>156</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="12">
-        <v>33</v>
-      </c>
-      <c r="E33" s="12">
-        <v>66</v>
-      </c>
-      <c r="F33" s="12">
-        <v>133</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12">
-        <v>199</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12">
-        <v>5</v>
-      </c>
-      <c r="N33" s="12">
-        <v>4</v>
-      </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>144</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>21</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="17">
+        <v>23</v>
+      </c>
+      <c r="E33" s="17">
+        <v>46</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17">
+        <v>138</v>
+      </c>
+      <c r="H33" s="17">
         <v>92</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17">
+        <v>4</v>
+      </c>
+      <c r="O33" s="17">
+        <v>3</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>27</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="17">
+        <v>23</v>
+      </c>
+      <c r="E34" s="17">
         <v>46</v>
       </c>
-      <c r="G34" s="12">
-        <v>184</v>
-      </c>
-      <c r="H34" s="12">
-        <v>276</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12">
-        <v>5</v>
-      </c>
-      <c r="N34" s="12">
-        <v>6</v>
-      </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F34" s="17">
+        <v>138</v>
+      </c>
+      <c r="G34" s="17">
+        <v>92</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17">
+        <v>4</v>
+      </c>
+      <c r="O34" s="17">
+        <v>3</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12">
-        <v>53</v>
-      </c>
-      <c r="F35" s="12">
+      <c r="D35" s="12">
         <v>40</v>
       </c>
-      <c r="G35" s="12">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12">
         <v>40</v>
       </c>
-      <c r="H35" s="12"/>
       <c r="I35" s="12">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L35" s="12">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12">
-        <v>3</v>
-      </c>
-      <c r="O35" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="O35" s="12">
+        <v>3</v>
+      </c>
       <c r="P35" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="12">
-        <v>124</v>
-      </c>
-      <c r="E36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12">
+        <v>92</v>
+      </c>
       <c r="F36" s="12">
-        <v>249</v>
-      </c>
-      <c r="G36" s="12">
-        <v>374</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G36" s="12"/>
       <c r="H36" s="12">
-        <v>62</v>
-      </c>
-      <c r="I36" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="I36" s="12">
+        <v>46</v>
+      </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="L36" s="12"/>
       <c r="M36" s="12">
-        <v>7</v>
-      </c>
-      <c r="N36" s="12">
-        <v>7</v>
-      </c>
-      <c r="O36" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12">
+        <v>3</v>
+      </c>
       <c r="P36" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12">
-        <v>75</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12">
-        <v>15</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F37" s="12">
+        <v>92</v>
+      </c>
+      <c r="G37" s="12"/>
       <c r="H37" s="12">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="I37" s="12">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="12">
-        <v>3</v>
-      </c>
-      <c r="M37" s="12">
-        <v>5</v>
-      </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12">
+        <v>3</v>
+      </c>
+      <c r="O37" s="12">
+        <v>4</v>
+      </c>
       <c r="P37" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="12">
-        <v>33</v>
-      </c>
+      <c r="D38" s="12"/>
       <c r="E38" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F38" s="12">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="G38" s="12">
-        <v>133</v>
-      </c>
-      <c r="H38" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="L38" s="12"/>
-      <c r="M38" s="12">
-        <v>5</v>
-      </c>
+      <c r="M38" s="12"/>
       <c r="N38" s="12">
         <v>4</v>
       </c>
-      <c r="O38" s="12"/>
+      <c r="O38" s="12">
+        <v>4</v>
+      </c>
       <c r="P38" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12">
-        <v>100</v>
-      </c>
+      <c r="D39" s="12">
+        <v>46</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G39" s="12">
-        <v>66</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12">
-        <v>33</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H39" s="12">
+        <v>138</v>
+      </c>
+      <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L39" s="12">
-        <v>3</v>
-      </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12">
-        <v>3</v>
-      </c>
-      <c r="O39" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12">
+        <v>3</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12">
+        <v>4</v>
+      </c>
       <c r="P39" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="12">
-        <v>46</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12">
+        <v>66</v>
+      </c>
+      <c r="F40" s="12">
+        <v>133</v>
+      </c>
       <c r="G40" s="12">
-        <v>23</v>
-      </c>
-      <c r="H40" s="12">
-        <v>92</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H40" s="12"/>
       <c r="I40" s="12">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="12">
-        <v>4</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12">
-        <v>3</v>
-      </c>
-      <c r="O40" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="O40" s="12">
+        <v>4</v>
+      </c>
       <c r="P40" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
+        <v>69</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>100</v>
+      </c>
+      <c r="F41" s="12">
+        <v>33</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12">
         <v>66</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="12">
-        <v>15</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12">
-        <v>30</v>
-      </c>
-      <c r="H41" s="12">
-        <v>92</v>
-      </c>
-      <c r="I41" s="12">
-        <v>61</v>
-      </c>
+      <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L41" s="12">
-        <v>3</v>
-      </c>
-      <c r="M41" s="12">
-        <v>3</v>
-      </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12">
+        <v>3</v>
+      </c>
+      <c r="O41" s="12">
+        <v>5</v>
+      </c>
       <c r="P41" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12">
-        <v>276</v>
-      </c>
+      <c r="D42" s="12">
+        <v>66</v>
+      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="12">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G42" s="12">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="H42" s="12">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="L42" s="12"/>
-      <c r="M42" s="12">
-        <v>3</v>
-      </c>
+      <c r="M42" s="12"/>
       <c r="N42" s="12">
-        <v>4</v>
-      </c>
-      <c r="O42" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="O42" s="12">
+        <v>5</v>
+      </c>
       <c r="P42" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="12">
-        <v>92</v>
-      </c>
-      <c r="E43" s="12">
         <v>138</v>
       </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="12">
         <v>46</v>
       </c>
-      <c r="G43" s="12"/>
+      <c r="G43" s="12">
+        <v>23</v>
+      </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="L43" s="12">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12">
-        <v>5</v>
-      </c>
-      <c r="O43" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="O43" s="12">
+        <v>5</v>
+      </c>
       <c r="P43" s="13" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="S43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H44" s="12">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I44" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L44" s="12">
-        <v>4</v>
-      </c>
-      <c r="M44" s="12">
-        <v>3</v>
-      </c>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12">
+        <v>5</v>
+      </c>
+      <c r="O44" s="12">
+        <v>5</v>
+      </c>
       <c r="P44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="S44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12">
-        <v>21</v>
-      </c>
+      <c r="D45" s="12">
+        <v>276</v>
+      </c>
+      <c r="E45" s="12">
+        <v>46</v>
+      </c>
+      <c r="F45" s="12"/>
       <c r="G45" s="12">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H45" s="12">
-        <v>150</v>
-      </c>
-      <c r="I45" s="12">
-        <v>52</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L45" s="12">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="L45" s="12"/>
       <c r="M45" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
+      <c r="O45" s="12">
+        <v>5</v>
+      </c>
       <c r="P45" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="12">
+        <v>276</v>
+      </c>
+      <c r="E46" s="12">
+        <v>184</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12">
         <v>46</v>
       </c>
-      <c r="E46" s="12">
-        <v>23</v>
-      </c>
-      <c r="F46" s="12">
+      <c r="I46" s="12">
         <v>92</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12">
-        <v>138</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="12">
-        <v>4</v>
-      </c>
-      <c r="M46" s="12">
-        <v>3</v>
-      </c>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12">
+        <v>6</v>
+      </c>
+      <c r="O46" s="12">
+        <v>5</v>
+      </c>
       <c r="P46" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="12">
+        <v>123</v>
+      </c>
       <c r="E47" s="12">
-        <v>92</v>
-      </c>
-      <c r="F47" s="12">
-        <v>138</v>
-      </c>
-      <c r="G47" s="12">
-        <v>23</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="12">
-        <v>46</v>
-      </c>
-      <c r="I47" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="I47" s="12">
+        <v>61</v>
+      </c>
       <c r="J47" s="12"/>
       <c r="K47" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L47" s="12">
-        <v>4</v>
-      </c>
-      <c r="M47" s="12">
-        <v>3</v>
-      </c>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12">
+        <v>6</v>
+      </c>
+      <c r="O47" s="12">
+        <v>5</v>
+      </c>
       <c r="P47" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12">
-        <v>46</v>
-      </c>
+      <c r="D48" s="12">
+        <v>66</v>
+      </c>
+      <c r="E48" s="12"/>
       <c r="F48" s="12">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G48" s="12">
-        <v>138</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12">
-        <v>23</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L48" s="12">
-        <v>4</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L48" s="12"/>
       <c r="M48" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
+      <c r="O48" s="12">
+        <v>5</v>
+      </c>
       <c r="P48" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12">
-        <v>23</v>
-      </c>
+      <c r="D49" s="12">
+        <v>46</v>
+      </c>
+      <c r="E49" s="12"/>
       <c r="F49" s="12">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="G49" s="12">
         <v>92</v>
       </c>
-      <c r="H49" s="12">
-        <v>138</v>
-      </c>
-      <c r="I49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12">
+        <v>184</v>
+      </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" s="12">
-        <v>4</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="L49" s="12"/>
       <c r="M49" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
+      <c r="O49" s="12">
+        <v>5</v>
+      </c>
       <c r="P49" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="12">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="E50" s="12">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="I50" s="12">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L50" s="12">
-        <v>5</v>
-      </c>
-      <c r="M50" s="12">
-        <v>4</v>
-      </c>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12">
+        <v>6</v>
+      </c>
+      <c r="O50" s="12">
+        <v>7</v>
+      </c>
       <c r="P50" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="12">
-        <v>185</v>
-      </c>
+      <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="G51" s="12">
+        <v>61</v>
+      </c>
+      <c r="H51" s="12">
         <v>30</v>
       </c>
-      <c r="H51" s="12">
-        <v>61</v>
-      </c>
-      <c r="I51" s="12"/>
+      <c r="I51" s="12">
+        <v>15</v>
+      </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="12">
-        <v>5</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="L51" s="12"/>
       <c r="M51" s="12">
-        <v>4</v>
-      </c>
-      <c r="N51" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="N51" s="12">
+        <v>3</v>
+      </c>
       <c r="O51" s="12"/>
       <c r="P51" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E52" s="12"/>
-      <c r="F52" s="12">
-        <v>138</v>
-      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="12">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H52" s="12">
-        <v>46</v>
-      </c>
-      <c r="I52" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="I52" s="12">
+        <v>33</v>
+      </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L52" s="12">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L52" s="12"/>
       <c r="M52" s="12">
-        <v>4</v>
-      </c>
-      <c r="N52" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="N52" s="12">
+        <v>4</v>
+      </c>
       <c r="O52" s="12"/>
       <c r="P52" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="12">
+        <v>33</v>
+      </c>
       <c r="E53" s="12">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="F53" s="12">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12">
-        <v>374</v>
-      </c>
-      <c r="I53" s="12">
-        <v>62</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L53" s="12">
-        <v>7</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="L53" s="12"/>
       <c r="M53" s="12">
-        <v>7</v>
-      </c>
-      <c r="N53" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="N53" s="12">
+        <v>4</v>
+      </c>
       <c r="O53" s="12"/>
       <c r="P53" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="12">
-        <v>199</v>
-      </c>
-      <c r="E54" s="12">
-        <v>33</v>
-      </c>
-      <c r="F54" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12">
+        <v>46</v>
+      </c>
       <c r="G54" s="12">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="H54" s="12">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L54" s="12">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="L54" s="12"/>
       <c r="M54" s="12">
         <v>5</v>
       </c>
-      <c r="N54" s="12"/>
+      <c r="N54" s="12">
+        <v>6</v>
+      </c>
       <c r="O54" s="12"/>
       <c r="P54" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12">
-        <v>66</v>
-      </c>
+      <c r="D55" s="12">
+        <v>124</v>
+      </c>
+      <c r="E55" s="12"/>
       <c r="F55" s="12">
-        <v>33</v>
-      </c>
-      <c r="G55" s="12"/>
+        <v>249</v>
+      </c>
+      <c r="G55" s="12">
+        <v>374</v>
+      </c>
       <c r="H55" s="12">
-        <v>0</v>
-      </c>
-      <c r="I55" s="12">
-        <v>100</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L55" s="12">
-        <v>4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="L55" s="12"/>
       <c r="M55" s="12">
-        <v>4</v>
-      </c>
-      <c r="N55" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="N55" s="12">
+        <v>7</v>
+      </c>
       <c r="O55" s="12"/>
       <c r="P55" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="12">
+        <v>33</v>
+      </c>
       <c r="E56" s="12">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F56" s="12">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="G56" s="12">
-        <v>185</v>
-      </c>
-      <c r="H56" s="12">
-        <v>30</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="L56" s="12"/>
       <c r="M56" s="12">
@@ -4245,96 +4238,93 @@
       </c>
       <c r="O56" s="12"/>
       <c r="P56" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="12">
-        <v>0</v>
-      </c>
-      <c r="E57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12">
+        <v>276</v>
+      </c>
       <c r="F57" s="12">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="G57" s="12">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="H57" s="12">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L57" s="12">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="L57" s="12"/>
       <c r="M57" s="12">
-        <v>5</v>
-      </c>
-      <c r="N57" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="N57" s="12">
+        <v>4</v>
+      </c>
       <c r="O57" s="12"/>
       <c r="P57" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="12">
-        <v>61</v>
-      </c>
+      <c r="D58" s="12"/>
       <c r="E58" s="12">
-        <v>61</v>
-      </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="F58" s="12">
+        <v>92</v>
+      </c>
+      <c r="G58" s="12">
+        <v>185</v>
+      </c>
       <c r="H58" s="12">
-        <v>123</v>
-      </c>
-      <c r="I58" s="12">
-        <v>185</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="12">
-        <v>4</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L58" s="12"/>
       <c r="M58" s="12">
         <v>5</v>
       </c>
-      <c r="N58" s="12"/>
+      <c r="N58" s="12">
+        <v>4</v>
+      </c>
       <c r="O58" s="12"/>
       <c r="P58" s="13" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T59" xr:uid="{890DF186-C272-44F8-98D7-FDD31A9D47EC}">
     <sortState ref="A2:T58">
-      <sortCondition ref="O1:O59"/>
+      <sortCondition ref="L1:L59"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
